--- a/certificates/certifications-list.xlsx
+++ b/certificates/certifications-list.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D4B1F3-3859-445E-ACE3-30ED340F77BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC3FD76-4DE1-4742-97AA-F22DF309DA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,21 +15,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>WEBSITE</t>
   </si>
@@ -168,6 +159,18 @@
   </si>
   <si>
     <t>CS50's Introduction to Computer Science</t>
+  </si>
+  <si>
+    <t>C Programming For Beginners - Master the C Language</t>
+  </si>
+  <si>
+    <t>Udacity</t>
+  </si>
+  <si>
+    <t>Tim Buchalka</t>
+  </si>
+  <si>
+    <t>AWS Machine Learning Foundations</t>
   </si>
 </sst>
 </file>
@@ -233,7 +236,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,8 +261,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -310,23 +319,64 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom/>
@@ -334,14 +384,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -349,37 +399,7 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -391,43 +411,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -439,36 +422,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -478,22 +452,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -501,41 +472,62 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -818,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -834,256 +826,293 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="32" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="34" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="8">
         <v>44144</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="31"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="8">
         <v>44159</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="35" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
-      <c r="B4" s="32"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <v>44197</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="35" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="33"/>
+      <c r="B5" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="35"/>
+    </row>
+    <row r="6" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="2" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D7" s="8">
         <v>44252</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+    <row r="8" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B9" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="7" t="s">
+    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="24"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="16" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="24"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="16" t="s">
+    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="16" t="s">
+    <row r="13" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="16" t="s">
+    <row r="14" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="24"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="16" t="s">
+    <row r="15" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="19" t="s">
+    <row r="16" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D16" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="17" t="s">
+    <row r="17" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D17" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+    <row r="18" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B19" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C19" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="6"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="43"/>
+      <c r="C21" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{246B2B98-BCBA-435D-8D0B-0B59ECA20BCE}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{624898F8-51A6-43C3-9222-0FF1CE96D0EA}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{FDDF8363-1474-45A2-A359-E0BA7B39F41F}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{77FA1CE4-B2F9-4372-B1C7-085F45A4FD6F}"/>
-    <hyperlink ref="E8" r:id="rId5" xr:uid="{0EEE6C04-F8B1-4493-8FD6-F9EEED00CCA9}"/>
-    <hyperlink ref="E9" r:id="rId6" xr:uid="{15F09F59-C316-4BEE-90E7-871516B92AF4}"/>
-    <hyperlink ref="E10" r:id="rId7" xr:uid="{0D8EE86C-3512-4A43-91AF-1CD671C84784}"/>
-    <hyperlink ref="E11" r:id="rId8" xr:uid="{E1007299-8955-4057-9A9A-5BD62C3B3E06}"/>
-    <hyperlink ref="E12" r:id="rId9" xr:uid="{E083B356-2524-48DC-BB14-E23AEC6ADCBA}"/>
-    <hyperlink ref="E13" r:id="rId10" xr:uid="{32D46C99-FF00-4C9C-84A0-268043D1E4F3}"/>
-    <hyperlink ref="E14" r:id="rId11" xr:uid="{13D57527-8F52-4161-8A70-A316B8A4510D}"/>
-    <hyperlink ref="E15" r:id="rId12" xr:uid="{571F4791-607B-4361-9380-35B9E3FA4450}"/>
-    <hyperlink ref="E16" r:id="rId13" xr:uid="{1FF886F6-B677-4AA2-9416-4F63D80219C9}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{77FA1CE4-B2F9-4372-B1C7-085F45A4FD6F}"/>
+    <hyperlink ref="E9" r:id="rId5" xr:uid="{0EEE6C04-F8B1-4493-8FD6-F9EEED00CCA9}"/>
+    <hyperlink ref="E10" r:id="rId6" xr:uid="{15F09F59-C316-4BEE-90E7-871516B92AF4}"/>
+    <hyperlink ref="E11" r:id="rId7" xr:uid="{0D8EE86C-3512-4A43-91AF-1CD671C84784}"/>
+    <hyperlink ref="E12" r:id="rId8" xr:uid="{E1007299-8955-4057-9A9A-5BD62C3B3E06}"/>
+    <hyperlink ref="E13" r:id="rId9" xr:uid="{E083B356-2524-48DC-BB14-E23AEC6ADCBA}"/>
+    <hyperlink ref="E14" r:id="rId10" xr:uid="{32D46C99-FF00-4C9C-84A0-268043D1E4F3}"/>
+    <hyperlink ref="E15" r:id="rId11" xr:uid="{13D57527-8F52-4161-8A70-A316B8A4510D}"/>
+    <hyperlink ref="E16" r:id="rId12" xr:uid="{571F4791-607B-4361-9380-35B9E3FA4450}"/>
+    <hyperlink ref="E17" r:id="rId13" xr:uid="{1FF886F6-B677-4AA2-9416-4F63D80219C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId14"/>

--- a/certificates/certifications-list.xlsx
+++ b/certificates/certifications-list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC3FD76-4DE1-4742-97AA-F22DF309DA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BEE500-F994-4E5E-91AC-13FA495DC681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
-    <t>WEBSITE</t>
-  </si>
-  <si>
     <t>COURSE NAME</t>
   </si>
   <si>
@@ -167,10 +164,13 @@
     <t>Udacity</t>
   </si>
   <si>
-    <t>Tim Buchalka</t>
-  </si>
-  <si>
     <t>AWS Machine Learning Foundations</t>
+  </si>
+  <si>
+    <t>LP Academy</t>
+  </si>
+  <si>
+    <t>WEBSITE / ACADEMY</t>
   </si>
 </sst>
 </file>
@@ -268,7 +268,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -415,6 +415,43 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -422,7 +459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -466,33 +503,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -502,22 +512,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -527,6 +527,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -813,86 +858,86 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="61" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="75.5546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="30" t="s">
+      <c r="D1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="E1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="32" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="43" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="D2" s="8">
         <v>44144</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="44"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D3" s="8">
         <v>44159</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="44"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="D4" s="8">
         <v>44197</v>
       </c>
-      <c r="E4" s="35" t="s">
-        <v>11</v>
+      <c r="E4" s="25" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
-      <c r="B5" s="37" t="s">
+      <c r="A5" s="45"/>
+      <c r="B5" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>46</v>
+      <c r="C5" s="42" t="s">
+        <v>45</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="35"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
@@ -902,18 +947,18 @@
       <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="D7" s="8">
         <v>44252</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -924,124 +969,124 @@
       <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="5" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="37"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="5" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="37"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="5" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="37"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="5" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="37"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="13" t="s">
+      <c r="D13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="5" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="37"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="13" t="s">
+      <c r="D14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="5" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="37"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="13" t="s">
+      <c r="D15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="5" t="s">
+    </row>
+    <row r="16" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="38"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="16" t="s">
+      <c r="D16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -1053,41 +1098,41 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="C19" s="18" t="s">
         <v>44</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>45</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="18" t="s">
         <v>47</v>
-      </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="18" t="s">
-        <v>49</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/certificates/certifications-list.xlsx
+++ b/certificates/certifications-list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BEE500-F994-4E5E-91AC-13FA495DC681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BBE999-8F20-4283-8769-F588CE2CDC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>COURSE NAME</t>
   </si>
@@ -171,6 +171,21 @@
   </si>
   <si>
     <t>WEBSITE / ACADEMY</t>
+  </si>
+  <si>
+    <t>https://cs50.harvard.edu/certificates/76d806a2-318c-4569-9257-d592eae67af4</t>
+  </si>
+  <si>
+    <t>OpenCourseWare</t>
+  </si>
+  <si>
+    <t>Harvard University</t>
+  </si>
+  <si>
+    <t>CS50's Understanding Technology</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
 </sst>
 </file>
@@ -459,7 +474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -495,7 +510,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -523,6 +537,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -562,17 +579,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -855,18 +892,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="61" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="75.5546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -875,18 +912,18 @@
         <v>49</v>
       </c>
       <c r="B1" s="31"/>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="34" t="s">
@@ -898,12 +935,12 @@
       <c r="D2" s="8">
         <v>44144</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="44"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="35"/>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -911,12 +948,12 @@
       <c r="D3" s="8">
         <v>44159</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="35"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -924,22 +961,24 @@
       <c r="D4" s="8">
         <v>44197</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
-      <c r="B5" s="24" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="25"/>
-    </row>
-    <row r="6" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -961,7 +1000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -1089,7 +1128,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -1097,46 +1136,74 @@
       <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="17"/>
+      <c r="D19" s="52" t="s">
+        <v>54</v>
+      </c>
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="51"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="53">
+        <v>44377</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="18" t="s">
+      <c r="B23" s="30"/>
+      <c r="C23" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
+      <c r="D23" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="B2:B4"/>
@@ -1158,8 +1225,9 @@
     <hyperlink ref="E15" r:id="rId11" xr:uid="{13D57527-8F52-4161-8A70-A316B8A4510D}"/>
     <hyperlink ref="E16" r:id="rId12" xr:uid="{571F4791-607B-4361-9380-35B9E3FA4450}"/>
     <hyperlink ref="E17" r:id="rId13" xr:uid="{1FF886F6-B677-4AA2-9416-4F63D80219C9}"/>
+    <hyperlink ref="E21" r:id="rId14" xr:uid="{ADB7B64C-849C-4D38-AC6A-88FF599384B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId14"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId15"/>
 </worksheet>
 </file>
--- a/certificates/certifications-list.xlsx
+++ b/certificates/certifications-list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BBE999-8F20-4283-8769-F588CE2CDC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE95E03-66D8-42A4-BFF8-B561C80D1C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>COURSE NAME</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>…</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/certificate/UC-acb11d70-fc58-4488-b4a8-3b5161b07040/</t>
   </si>
 </sst>
 </file>
@@ -540,54 +543,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -610,6 +565,54 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -895,7 +898,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -908,10 +911,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="40"/>
       <c r="C1" s="20" t="s">
         <v>0</v>
       </c>
@@ -923,10 +926,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="43" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -940,8 +943,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="43"/>
-      <c r="B3" s="35"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
@@ -953,8 +956,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
@@ -966,17 +969,19 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="23" t="s">
         <v>48</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="24"/>
+      <c r="D5" s="8">
+        <v>44380</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
@@ -986,10 +991,10 @@
       <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1008,10 +1013,10 @@
       <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="48" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1025,8 +1030,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
-      <c r="B10" s="40"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="7" t="s">
         <v>19</v>
       </c>
@@ -1038,8 +1043,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="37"/>
-      <c r="B11" s="40"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="13" t="s">
         <v>22</v>
       </c>
@@ -1051,8 +1056,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37"/>
-      <c r="B12" s="40"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="13" t="s">
         <v>25</v>
       </c>
@@ -1064,8 +1069,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37"/>
-      <c r="B13" s="40"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="13" t="s">
         <v>28</v>
       </c>
@@ -1077,8 +1082,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
-      <c r="B14" s="40"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="13" t="s">
         <v>31</v>
       </c>
@@ -1090,8 +1095,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37"/>
-      <c r="B15" s="40"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="13" t="s">
         <v>34</v>
       </c>
@@ -1103,8 +1108,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
-      <c r="B16" s="41"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="16" t="s">
         <v>37</v>
       </c>
@@ -1145,29 +1150,29 @@
       <c r="C19" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="36" t="s">
         <v>54</v>
       </c>
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="47"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="51"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="30" t="s">
         <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="53">
+      <c r="D21" s="37">
         <v>44377</v>
       </c>
       <c r="E21" s="24" t="s">
@@ -1182,14 +1187,14 @@
       <c r="E22" s="27"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="30"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="36" t="s">
         <v>54</v>
       </c>
       <c r="E23" s="6"/>
@@ -1226,8 +1231,9 @@
     <hyperlink ref="E16" r:id="rId12" xr:uid="{571F4791-607B-4361-9380-35B9E3FA4450}"/>
     <hyperlink ref="E17" r:id="rId13" xr:uid="{1FF886F6-B677-4AA2-9416-4F63D80219C9}"/>
     <hyperlink ref="E21" r:id="rId14" xr:uid="{ADB7B64C-849C-4D38-AC6A-88FF599384B9}"/>
+    <hyperlink ref="E5" r:id="rId15" xr:uid="{682A56EC-7DE8-43A8-8AF6-20F43650707D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId15"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId16"/>
 </worksheet>
 </file>